--- a/CAL_proj1/Cal_data2.xlsx
+++ b/CAL_proj1/Cal_data2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>pattern size</t>
   </si>
@@ -42,39 +42,6 @@
   </si>
   <si>
     <t>street inexistent</t>
-  </si>
-  <si>
-    <t>1.0132</t>
-  </si>
-  <si>
-    <t>2.0023</t>
-  </si>
-  <si>
-    <t>2.0311</t>
-  </si>
-  <si>
-    <t>3.0152</t>
-  </si>
-  <si>
-    <t>4.0148</t>
-  </si>
-  <si>
-    <t>6.0278</t>
-  </si>
-  <si>
-    <t>10.019</t>
-  </si>
-  <si>
-    <t>19.0372</t>
-  </si>
-  <si>
-    <t>38.0503</t>
-  </si>
-  <si>
-    <t>76.0583</t>
-  </si>
-  <si>
-    <t>153.106</t>
   </si>
   <si>
     <t>as palavras foras as mesmas entre a variação do nº de Cpoints</t>
@@ -142,6 +109,2687 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Random</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> String</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 CPoints</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$21:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0172000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0135999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0215999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0182000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.033200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.0319</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.029299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C01-4A17-92D8-FB1E299563EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>200 CPoints</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$21:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0132000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0053000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0005999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9998999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0319000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.0214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.0303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.045900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102.05800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C01-4A17-92D8-FB1E299563EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>300 CPoints</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$21:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0132000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0310999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0148000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.037199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.0503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.058300000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153.10599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6C01-4A17-92D8-FB1E299563EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="279038544"/>
+        <c:axId val="279033624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="279038544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>PATTERN SIZE </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t>(characters)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279033624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279033624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279038544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>'a'</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> only string</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 CPoints</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.5738</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.613200000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.8339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CBD-45AC-B1FF-75D3C0E8EEEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>200 CPoints</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3703000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.582599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.635199999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.8339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.993399999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CBD-45AC-B1FF-75D3C0E8EEEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>300 Cpoints</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9890999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.011799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.5824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.1938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.510300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125.01300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4CBD-45AC-B1FF-75D3C0E8EEEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="279038544"/>
+        <c:axId val="279033624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="279038544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>PATTERN SIZE </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t>(characters)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279033624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279033624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279038544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,7 +3058,7 @@
   <dimension ref="A2:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -677,8 +3325,8 @@
       <c r="C21">
         <v>1.0129999999999999</v>
       </c>
-      <c r="D21" t="s">
-        <v>6</v>
+      <c r="D21">
+        <v>1.0132000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,8 +3339,8 @@
       <c r="C22">
         <v>1.0132000000000001</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
+      <c r="D22">
+        <v>2.0023</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,8 +3353,8 @@
       <c r="C23">
         <v>0.99870000000000003</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
+      <c r="D23">
+        <v>2.0310999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,8 +3367,8 @@
       <c r="C24">
         <v>1.0053000000000001</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
+      <c r="D24">
+        <v>3.0152000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,8 +3381,8 @@
       <c r="C25">
         <v>2.0005999999999999</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
+      <c r="D25">
+        <v>4.0148000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,8 +3395,8 @@
       <c r="C26">
         <v>3.9998999999999998</v>
       </c>
-      <c r="D26" t="s">
-        <v>11</v>
+      <c r="D26">
+        <v>6.0278</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,8 +3409,8 @@
       <c r="C27">
         <v>7.0319000000000003</v>
       </c>
-      <c r="D27" t="s">
-        <v>12</v>
+      <c r="D27">
+        <v>10.019</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,8 +3423,8 @@
       <c r="C28">
         <v>14.0214</v>
       </c>
-      <c r="D28" t="s">
-        <v>13</v>
+      <c r="D28">
+        <v>19.037199999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,8 +3437,8 @@
       <c r="C29">
         <v>26.0303</v>
       </c>
-      <c r="D29" t="s">
-        <v>14</v>
+      <c r="D29">
+        <v>38.0503</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,8 +3451,8 @@
       <c r="C30">
         <v>51.045900000000003</v>
       </c>
-      <c r="D30" t="s">
-        <v>15</v>
+      <c r="D30">
+        <v>76.058300000000003</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,31 +3465,32 @@
       <c r="C31">
         <v>102.05800000000001</v>
       </c>
-      <c r="D31" t="s">
-        <v>16</v>
+      <c r="D31">
+        <v>153.10599999999999</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>